--- a/medicine/Mort/Strangulation/Strangulation.xlsx
+++ b/medicine/Mort/Strangulation/Strangulation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La strangulation ou l'étranglement est l'action de serrer l'avant du cou[1] pour comprimer les veines jugulaires, les artères carotides et/ou la trachée. Elle peut causer l'évanouissement puis la mort par asphyxie[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La strangulation ou l'étranglement est l'action de serrer l'avant du cou pour comprimer les veines jugulaires, les artères carotides et/ou la trachée. Elle peut causer l'évanouissement puis la mort par asphyxie.
 La strangulation peut être volontaire (tentative de suicide, meurtre, exécution, pratique érotique) ou accidentelle (compression par la chute d'un objet, vêtement happé par une machine).
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Traumatologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La compression du cou entraîne selon le niveau de pression exercé :
 la fracture de l'os hyoïde situé au-dessus du larynx : c'est le seul cas où la rupture de celui-ci peut intervenir (en médecine légale c'est une preuve irréfutable de strangulation).
@@ -551,6 +565,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,7 +592,9 @@
           <t>Strangulation pénale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'étranglement a été également pendant longtemps un mode d'exécution pour la peine capitale, pratiquée un peu partout dans le monde à des périodes différentes.
 En Orient (notamment en Chine), il était d'usage d'enserrer la tête du condamné dans une cangue[a] disposée à l'horizontale sur un échafaudage, de façon que les pieds du supplicié ne touchent pas le sol (ceux-ci étant parfois lestés d'une lourde pierre pesant jusqu'à 100 kg).
@@ -612,8 +630,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Coup du père François
-Le coup du père François, aussi appelé  vol à l'étranglement ou coup en traître, est une technique ancienne de strangulation, s'exécutant à l'aide d'un foulard ou d'une ceinture. Elle se pratique généralement ainsi, à deux personnes :
+          <t>Coup du père François</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le coup du père François, aussi appelé  vol à l'étranglement ou coup en traître, est une technique ancienne de strangulation, s'exécutant à l'aide d'un foulard ou d'une ceinture. Elle se pratique généralement ainsi, à deux personnes :
 un complice s'adresse à la victime (renseignement, pour du feu, etc.) ;
 l'agresseur s'avance par-derrière avec une ceinture ou un foulard tenu dans ses mains ;
 il passe la ceinture par-dessus la tête de la victime ;
@@ -648,6 +671,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -673,7 +698,9 @@
           <t>Strangulation accidentelle</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce fut le cas pour Isadora Duncan.
 </t>
@@ -704,7 +731,9 @@
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Au début du troisième épisode du Seigneur des Anneaux, Gollum étrangle son ami jusqu'à la mort pour s'accaparer l'anneau de pouvoir.</t>
         </is>
